--- a/data.xlsx
+++ b/data.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Test123</t>
   </si>
@@ -24,18 +26,81 @@
   </si>
   <si>
     <t>Nig</t>
+  </si>
+  <si>
+    <t>Nigga</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Address primary</t>
+  </si>
+  <si>
+    <t>Home telephone</t>
+  </si>
+  <si>
+    <t>Mobile telephone</t>
+  </si>
+  <si>
+    <t>Work telephone</t>
+  </si>
+  <si>
+    <t>Email1</t>
+  </si>
+  <si>
+    <t>Email2</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Address secondary</t>
+  </si>
+  <si>
+    <t>Home secondary</t>
+  </si>
+  <si>
+    <t>Aasdf</t>
+  </si>
+  <si>
+    <t>Dick</t>
+  </si>
+  <si>
+    <t>Manson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -59,8 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -427,4 +493,143 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>